--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2011.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2011.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.158210952425605</v>
+        <v>1.106176853179932</v>
       </c>
       <c r="B1">
-        <v>2.307938968672881</v>
+        <v>3.053410530090332</v>
       </c>
       <c r="C1">
-        <v>7.843083596307558</v>
+        <v>6.525791645050049</v>
       </c>
       <c r="D1">
-        <v>2.4345458523639</v>
+        <v>1.854673266410828</v>
       </c>
       <c r="E1">
-        <v>1.226542713846938</v>
+        <v>1.209981083869934</v>
       </c>
     </row>
   </sheetData>
